--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -817,69 +817,6 @@
   </si>
   <si>
     <t>Besta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手動將時間往回調整後</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>刪除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>SD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中日期比調整後時間更新的檔案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,7 +925,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Calculate posterior probability as the following:</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>利用車下陰影</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>找倒車底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple Line: Grayscale Histogram.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green Line: Vertical Histogram.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Line: Horizontal Histogram.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                     =&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.EMI issue: Turn off VOC, turn off CJC5150, command to modify register of AR0330.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1411,19 +1408,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4695825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7705725</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1437,8 +1434,55 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5772150" y="1162050"/>
-          <a:ext cx="3009900" cy="6810375"/>
+          <a:off x="1209675" y="1771650"/>
+          <a:ext cx="3419475" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4543425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7981950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5619750" y="1790700"/>
+          <a:ext cx="3438525" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1780,7 +1824,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="37"/>
       <c r="B5" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1792,10 +1836,10 @@
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>189</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>190</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="15"/>
@@ -1842,7 +1886,9 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="38"/>
@@ -1862,49 +1908,51 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="38" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="38" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="B24" s="38" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="34" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="35"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="19" t="s">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="21" t="s">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="21" t="s">
         <v>184</v>
       </c>
     </row>

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -762,35 +762,6 @@
   </si>
   <si>
     <t>1.快速開機造成EMI fail.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>協助處理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>bug.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -813,10 +784,6 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Besta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -925,42 +892,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">                                                                                                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  a. success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  b. fail:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. </t>
+      <t>3. Result: failure rate</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>利用車下陰影</t>
+      <t>仍然很高</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>找倒車底</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -969,23 +929,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Purple Line: Grayscale Histogram.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green Line: Vertical Histogram.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Line: Horizontal Histogram.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                     =&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.EMI issue: Turn off VOC, turn off CJC5150, command to modify register of AR0330.</t>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二值化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前還沒有好的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>threshold strategy,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在不同場景下分離出車下陰影</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. porting to ffplay.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1248,26 +1246,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1310,32 +1295,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1370,12 +1337,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,19 +1369,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:colOff>3771900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1434,8 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1209675" y="1771650"/>
-          <a:ext cx="3419475" cy="2505075"/>
+          <a:off x="1952625" y="2200275"/>
+          <a:ext cx="2895600" cy="2162175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,19 +1416,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4543425</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7981950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1481,8 +1442,102 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5619750" y="1790700"/>
-          <a:ext cx="3438525" cy="2514600"/>
+          <a:off x="1905000" y="4905375"/>
+          <a:ext cx="2905125" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3867150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6743700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4943475" y="4895850"/>
+          <a:ext cx="2876550" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3971925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6829425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5048250" y="2276475"/>
+          <a:ext cx="2857500" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1812,149 +1867,157 @@
       <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="37"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="37"/>
-      <c r="B5" s="30" t="s">
+      <c r="B7" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38" t="s">
-        <v>192</v>
-      </c>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="35"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="20"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21" t="s">
-        <v>184</v>
-      </c>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2482,24 +2545,24 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" thickBot="1">
-      <c r="B15" s="41"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,8 +787,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FCWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  b. fail:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1.T5P2P:  p2P</t>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> shadow &amp; vertical edges, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>框出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>candidates.(drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不符合條件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>candidates)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.T2Plus:  </t>
     </r>
     <r>
       <rPr>
@@ -798,7 +873,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>时实时图像没有声音</t>
+      <t>修改</t>
     </r>
     <r>
       <rPr>
@@ -807,7 +882,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> &amp; Youtube</t>
+      <t xml:space="preserve"> a.App</t>
     </r>
     <r>
       <rPr>
@@ -817,7 +892,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>不能直播</t>
+      <t>取消</t>
     </r>
     <r>
       <rPr>
@@ -826,7 +901,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>=&gt;Kernel</t>
+      <t>WDR</t>
     </r>
     <r>
       <rPr>
@@ -836,7 +911,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>中的</t>
+      <t>設定選項</t>
     </r>
     <r>
       <rPr>
@@ -845,7 +920,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>N9 fw</t>
+      <t xml:space="preserve">. b. </t>
     </r>
     <r>
       <rPr>
@@ -855,7 +930,51 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>未更新</t>
+      <t>目錄使用比例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Heatmap: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>對</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>candidate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>所在位置持續加分</t>
     </r>
     <r>
       <rPr>
@@ -874,7 +993,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>造成</t>
+      <t>不屬於任何</t>
     </r>
     <r>
       <rPr>
@@ -883,29 +1002,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>ALSA initialization failed.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  a. success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  b. fail:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3. Result: failure rate</t>
+      <t>candidate</t>
     </r>
     <r>
       <rPr>
@@ -915,7 +1012,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>仍然很高</t>
+      <t>則持續減分</t>
     </r>
     <r>
       <rPr>
@@ -924,13 +1021,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
+      <t xml:space="preserve">.
+            </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +1032,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>二值化</t>
+      <t>愈白的部份表示</t>
     </r>
     <r>
       <rPr>
@@ -949,7 +1041,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">: </t>
+      <t>candidate</t>
     </r>
     <r>
       <rPr>
@@ -959,7 +1051,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>目前還沒有好的</t>
+      <t>在過去時間內出現的次數愈高</t>
     </r>
     <r>
       <rPr>
@@ -968,7 +1060,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>threshold strategy,</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -978,12 +1070,18 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>在不同場景下分離出車下陰影</t>
+      <t>得到更穩定的</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. porting to ffplay.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">candidate.
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,19 +1467,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3771900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>9505950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1395,149 +1493,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1952625" y="2200275"/>
-          <a:ext cx="2895600" cy="2162175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1905000" y="4905375"/>
-          <a:ext cx="2905125" cy="2114550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3867150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6743700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4943475" y="4895850"/>
-          <a:ext cx="2876550" cy="2162175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3971925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6829425</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5048250" y="2276475"/>
-          <a:ext cx="2857500" cy="2124075"/>
+          <a:off x="1343025" y="2143125"/>
+          <a:ext cx="9239250" cy="4495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1844,14 +1801,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="113" customWidth="1"/>
+    <col min="2" max="2" width="128.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -1879,7 +1836,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="29"/>
       <c r="B5" s="24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1891,19 +1848,19 @@
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+    <row r="8" spans="1:5" ht="53.25" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
@@ -1911,15 +1868,11 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="17"/>
-      <c r="B9" s="19" t="s">
-        <v>189</v>
-      </c>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="17"/>
-      <c r="B10" s="19" t="s">
-        <v>187</v>
-      </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="22"/>
@@ -1948,7 +1901,7 @@
     <row r="17" spans="1:2">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1974,7 +1927,7 @@
     <row r="23" spans="1:2">
       <c r="A23" s="30"/>
       <c r="B23" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1996,7 +1949,7 @@
     <row r="28" spans="1:2">
       <c r="A28" s="30"/>
       <c r="B28" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2">

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="191">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,12 +795,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  b. fail:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">1. </t>
+      <t xml:space="preserve">1.T2Plus:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EV -2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時死機</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Adaptive Thresholding: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在梯形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ROI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -819,7 +888,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> shadow &amp; vertical edges, </t>
+      <t>Otsu's Method</t>
     </r>
     <r>
       <rPr>
@@ -829,7 +898,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>框出</t>
+      <t>求出的</t>
     </r>
     <r>
       <rPr>
@@ -838,7 +907,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>candidates.(drop</t>
+      <t>threshold</t>
     </r>
     <r>
       <rPr>
@@ -848,7 +917,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>不符合條件的</t>
+      <t>與亮度</t>
     </r>
     <r>
       <rPr>
@@ -857,13 +926,112 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>candidates)</t>
+      <t>Peak</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">1.T2Plus:  </t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的關係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>求出每個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>frame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的二值化門檻值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白天大太陽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                                             b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>白天無陽光</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傍晚微飄雨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -873,7 +1041,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>修改</t>
+      <t>近處準確度提升</t>
     </r>
     <r>
       <rPr>
@@ -882,7 +1050,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> a.App</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -892,127 +1060,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>WDR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設定選項</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">. b. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>目錄使用比例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Heatmap: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>對</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>candidate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所在位置持續加分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不屬於任何</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>candidate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>則持續減分</t>
+      <t>但遠處誤判率仍高</t>
     </r>
     <r>
       <rPr>
@@ -1022,64 +1070,6 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">.
-            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>愈白的部份表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>candidate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在過去時間內出現的次數愈高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>得到更穩定的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">candidate.
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1443,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1467,19 +1460,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9505950</xdr:colOff>
+      <xdr:colOff>4857750</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>70184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1493,8 +1486,102 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1343025" y="2143125"/>
-          <a:ext cx="9239250" cy="4495800"/>
+          <a:off x="1076325" y="1914525"/>
+          <a:ext cx="4857750" cy="4451684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4953000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>20221</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6029325" y="1971674"/>
+          <a:ext cx="4877971" cy="4343401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4879331</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1114425" y="7038976"/>
+          <a:ext cx="4841231" cy="4419600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1799,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1836,7 +1923,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="29"/>
       <c r="B5" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1857,120 +1944,458 @@
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
-        <v>189</v>
-      </c>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30" t="s">
+    <row r="9" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A46" s="34"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A47" s="34"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A48" s="34"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A50" s="34"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A51" s="34"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A52" s="34"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A53" s="34"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A54" s="34"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A55" s="34"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A56" s="17"/>
+      <c r="B56" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="30"/>
+      <c r="B60" s="31"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="30"/>
+      <c r="B62" s="31"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+    <row r="77" spans="1:2">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,73 +765,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">                                                                                                    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G + Otus EVM:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>康翔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                    </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.T2Plus:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>EV -2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時死機</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Adaptive Thresholding: </t>
+      <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
@@ -841,16 +788,22 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>在梯形</t>
+      <t>解決誤判錯誤</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="SF Pro Display"/>
         <family val="3"/>
       </rPr>
-      <t>ROI</t>
+      <t>Candidate.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -860,13 +813,13 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>中</t>
+      <t>利用簡單三角函數關係</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="SF Pro Display"/>
         <family val="3"/>
       </rPr>
       <t>,</t>
@@ -879,16 +832,95 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>利用</t>
+      <t>推估前車距離</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="SF Pro Display"/>
         <family val="3"/>
       </rPr>
-      <t>Otsu's Method</t>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 4G module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>能被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t>EVM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>識別成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ethernet device. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但無法連線</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t>,sim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡似乎需要儲值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
@@ -898,16 +930,16 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>求出的</t>
+      <t>上層</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="SF Pro Display"/>
         <family val="3"/>
       </rPr>
-      <t>threshold</t>
+      <t>App</t>
     </r>
     <r>
       <rPr>
@@ -917,160 +949,16 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>與亮度</t>
+      <t>應用尚未完成</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="SF Pro Display"/>
         <family val="3"/>
       </rPr>
-      <t>Peak</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的關係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>求出每個</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>frame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的二值化門檻值</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白天大太陽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">                                             b. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>白天無陽光</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">c. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>傍晚微飄雨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>近處準確度提升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>但遠處誤判率仍高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
+      <t>.(One key to enable 4G, wait to 4G connection &amp; get a public IP,… etc)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1183,6 +1071,18 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SF Pro Display"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SF Pro Display"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1340,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,9 +1301,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1413,23 +1310,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1437,14 +1322,38 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,18 +1370,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4857750</xdr:colOff>
+      <xdr:colOff>4362450</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>70184</xdr:rowOff>
+      <xdr:rowOff>126973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1486,102 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1076325" y="1914525"/>
-          <a:ext cx="4857750" cy="4451684"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4953000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>20221</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6029325" y="1971674"/>
-          <a:ext cx="4877971" cy="4343401"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4879331</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1114425" y="7038976"/>
-          <a:ext cx="4841231" cy="4419600"/>
+          <a:off x="1076325" y="2133601"/>
+          <a:ext cx="4362450" cy="4070322"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,15 +1701,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="128.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -1911,491 +1726,496 @@
       <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="29"/>
+      <c r="A4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="24" t="s">
-        <v>186</v>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35" t="s">
+        <v>189</v>
+      </c>
       <c r="C6" s="16"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>187</v>
-      </c>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="21" t="s">
-        <v>188</v>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="16"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="16"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="16"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="16"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16"/>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="16"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="16"/>
       <c r="D20" s="14"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="16"/>
       <c r="D21" s="14"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="16"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="16"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="16"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="16"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="16"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="16"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="16"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="16"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="16"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="21" t="s">
-        <v>189</v>
-      </c>
+      <c r="A32" s="27"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="16"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="16"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="16"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="16"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="16"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="16"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="16"/>
       <c r="D40" s="14"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="16"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="16"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
     </row>
     <row r="43" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="16"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="16"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="16"/>
       <c r="D45" s="14"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="16"/>
       <c r="D46" s="14"/>
       <c r="E46" s="15"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="16"/>
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="16"/>
       <c r="D48" s="14"/>
       <c r="E48" s="15"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="16"/>
       <c r="D49" s="14"/>
       <c r="E49" s="15"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="16"/>
       <c r="D50" s="14"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="16"/>
       <c r="D51" s="14"/>
       <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="16"/>
       <c r="D52" s="14"/>
       <c r="E52" s="15"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A53" s="34"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="16"/>
       <c r="D53" s="14"/>
       <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A54" s="34"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="16"/>
       <c r="D54" s="14"/>
       <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A55" s="34"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="16"/>
       <c r="D55" s="14"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18" t="s">
-        <v>190</v>
-      </c>
+    <row r="56" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="16"/>
       <c r="D56" s="14"/>
       <c r="E56" s="15"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="27.75" customHeight="1">
       <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="17"/>
       <c r="B58" s="19"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="30"/>
-      <c r="B60" s="31"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30" t="s">
-        <v>185</v>
-      </c>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30" t="s">
-        <v>185</v>
-      </c>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2923,24 +2743,24 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="32"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" thickBot="1">
-      <c r="B15" s="33"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,75 +774,6 @@
   </si>
   <si>
     <t>FCWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>解決誤判錯誤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SF Pro Display"/>
-        <family val="3"/>
-      </rPr>
-      <t>Candidate.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>利用簡單三角函數關係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SF Pro Display"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>推估前車距離</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SF Pro Display"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -960,6 +891,10 @@
       </rPr>
       <t>.(One key to enable 4G, wait to 4G connection &amp; get a public IP,… etc)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Find stable vehicle candidate by contour detection algorithm. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,12 +1260,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,6 +1284,12 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1362,58 +1297,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4362450</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>126973</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1076325" y="2133601"/>
-          <a:ext cx="4362450" cy="4070322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,7 +1587,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1730,49 +1613,47 @@
       <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34" t="s">
-        <v>188</v>
+      <c r="A5" s="29"/>
+      <c r="B5" s="32" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
-        <v>189</v>
+      <c r="A6" s="30"/>
+      <c r="B6" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>186</v>
+      <c r="B8" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
-        <v>187</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
@@ -2221,7 +2102,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2743,24 +2623,24 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="36" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" ht="33.75" thickBot="1">
-      <c r="B15" s="29"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">

--- a/weekly_report_alexyu.xlsx
+++ b/weekly_report_alexyu.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="195">
   <si>
     <t>Done:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,7 +894,435 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.  Find stable vehicle candidate by contour detection algorithm. </t>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>设定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>录影后，关机重新开机电后为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">VR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>录影模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. EV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>默认设定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.7EV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>值取代</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4. SD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>卡格式化后在机器工作都会出现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VRecord.temp”,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>请取消该文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RGB color space, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">R-B &amp; R-G </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>尋找後車燈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>當陽光照射角度大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車影拉成很長一條時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會造成誤判</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SF Pro Display"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>设定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Car DVR, Loop record 2min,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重新通电后是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>调整到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-0.3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重新通电后仍是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>这种情况却能通过关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>power ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>重新开机，才会出现保存的模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1718,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1297,6 +1728,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2876550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1485900" y="1905000"/>
+          <a:ext cx="2876550" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1587,13 +2070,13 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="128.75" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -1645,7 +2128,7 @@
         <v>185</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
@@ -1653,7 +2136,9 @@
     </row>
     <row r="9" spans="1:5" ht="17.25" customHeight="1">
       <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
       <c r="E9" s="15"/>
@@ -1665,37 +2150,47 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" ht="17.25" customHeight="1">
+    <row r="11" spans="1:5" ht="138.75" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="20"/>
       <c r="C11" s="16"/>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="20"/>
+    <row r="12" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A12" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="C13" s="16"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
       <c r="A14" s="27"/>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" customHeight="1">
       <c r="A15" s="27"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>190</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
@@ -2102,6 +2597,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
